--- a/Examenes/Examen_Ordinario/Calificacion_Examen_Ordinario_Grupo_47.xlsx
+++ b/Examenes/Examen_Ordinario/Calificacion_Examen_Ordinario_Grupo_47.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_3\Examenes\Examen_Ordinario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE735560-D052-41A7-AA2B-0F9A38C90A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980FAE48-9B5A-42AA-A999-8CC7615BC5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="231" xr2:uid="{F90C9E78-18F9-46DB-9545-56C152858BAA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="420" activeTab="1" xr2:uid="{F90C9E78-18F9-46DB-9545-56C152858BAA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Examen" sheetId="1" r:id="rId1"/>
+    <sheet name="Primer Examen" sheetId="1" r:id="rId1"/>
+    <sheet name="Segundo Examen" sheetId="2" r:id="rId2"/>
+    <sheet name="Promedios" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Segundo Examen'!$A$1:$AV$13</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="62">
   <si>
     <t>CANTARELL IBARROLA REGINA</t>
   </si>
@@ -216,6 +221,12 @@
   </si>
   <si>
     <t>Calificación</t>
+  </si>
+  <si>
+    <t>Ciclo</t>
+  </si>
+  <si>
+    <t>Promedio</t>
   </si>
 </sst>
 </file>
@@ -280,7 +291,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -612,11 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03EB604-2AF3-4008-947E-99372B964841}">
   <dimension ref="A1:AT15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4290" ySplit="600" topLeftCell="AS2" activePane="bottomRight"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AT1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2760,4 +2789,1988 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D1F637-87CE-45EE-9045-BC64CF87B458}">
+  <dimension ref="A1:BN22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="5190" ySplit="720" topLeftCell="AD1" activePane="bottomRight"/>
+      <selection pane="topRight" activeCell="AC1" sqref="AC1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AV11" sqref="AV11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="34" width="4.7109375" style="1" customWidth="1"/>
+    <col min="35" max="44" width="4.7109375" customWidth="1"/>
+    <col min="45" max="46" width="11.42578125" style="1"/>
+    <col min="47" max="47" width="11.42578125" style="1" customWidth="1"/>
+    <col min="48" max="48" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="1">
+        <f>SUM(B2:AR2)</f>
+        <v>26</v>
+      </c>
+      <c r="AT2" s="3">
+        <f>(AS2/43)*10</f>
+        <v>6.0465116279069768</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>5.21</v>
+      </c>
+      <c r="AV2" s="3">
+        <f>SUM(AT2:AU2)/2</f>
+        <v>5.6282558139534888</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="1">
+        <f>SUM(B3:AR3)</f>
+        <v>29.75</v>
+      </c>
+      <c r="AT3" s="3">
+        <f>(AS3/43)*10</f>
+        <v>6.9186046511627906</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>4.01</v>
+      </c>
+      <c r="AV3" s="3">
+        <f t="shared" ref="AV3:AV13" si="0">SUM(AT3:AU3)/2</f>
+        <v>5.4643023255813947</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="1">
+        <f t="shared" ref="AS4:AS13" si="1">SUM(B4:AR4)</f>
+        <v>26.5</v>
+      </c>
+      <c r="AT4" s="3">
+        <f t="shared" ref="AT4:AT13" si="2">(AS4/43)*10</f>
+        <v>6.1627906976744189</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="AV4" s="3">
+        <f t="shared" si="0"/>
+        <v>5.3413953488372092</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1">
+        <v>1</v>
+      </c>
+      <c r="W5" s="1">
+        <v>1</v>
+      </c>
+      <c r="X5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="1">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="AT5" s="3">
+        <f t="shared" si="2"/>
+        <v>7.6744186046511631</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="AV5" s="3">
+        <f t="shared" si="0"/>
+        <v>6.6372093023255818</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="1">
+        <f t="shared" si="1"/>
+        <v>18.5</v>
+      </c>
+      <c r="AT6" s="3">
+        <f t="shared" si="2"/>
+        <v>4.3023255813953485</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>6.23</v>
+      </c>
+      <c r="AV6" s="3">
+        <f t="shared" si="0"/>
+        <v>5.266162790697674</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
+        <v>1</v>
+      </c>
+      <c r="W7" s="1">
+        <v>1</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="1">
+        <f t="shared" si="1"/>
+        <v>30.4</v>
+      </c>
+      <c r="AT7" s="3">
+        <f t="shared" si="2"/>
+        <v>7.0697674418604652</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>7.36</v>
+      </c>
+      <c r="AV7" s="3">
+        <f t="shared" si="0"/>
+        <v>7.2148837209302332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="T8" s="1">
+        <v>1</v>
+      </c>
+      <c r="U8" s="1">
+        <v>1</v>
+      </c>
+      <c r="V8" s="1">
+        <v>1</v>
+      </c>
+      <c r="W8" s="1">
+        <v>1</v>
+      </c>
+      <c r="X8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="1">
+        <f t="shared" si="1"/>
+        <v>25.75</v>
+      </c>
+      <c r="AT8" s="3">
+        <f t="shared" si="2"/>
+        <v>5.9883720930232549</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>5.29</v>
+      </c>
+      <c r="AV8" s="3">
+        <f t="shared" si="0"/>
+        <v>5.639186046511627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="T9" s="1">
+        <v>1</v>
+      </c>
+      <c r="U9" s="1">
+        <v>1</v>
+      </c>
+      <c r="V9" s="1">
+        <v>1</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="1">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="AT9" s="3">
+        <f t="shared" si="2"/>
+        <v>6.5116279069767451</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="AV9" s="3">
+        <f t="shared" si="0"/>
+        <v>5.5058139534883725</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1</v>
+      </c>
+      <c r="V10" s="1">
+        <v>1</v>
+      </c>
+      <c r="W10" s="1">
+        <v>1</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="1">
+        <f t="shared" si="1"/>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="AT10" s="3">
+        <f t="shared" si="2"/>
+        <v>8.7906976744186043</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>4.16</v>
+      </c>
+      <c r="AV10" s="3">
+        <f t="shared" si="0"/>
+        <v>6.4753488372093022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="T11" s="1">
+        <v>1</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1">
+        <v>1</v>
+      </c>
+      <c r="W11" s="1">
+        <v>1</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="1">
+        <f t="shared" si="1"/>
+        <v>28.25</v>
+      </c>
+      <c r="AT11" s="3">
+        <f t="shared" si="2"/>
+        <v>6.5697674418604644</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>5.63</v>
+      </c>
+      <c r="AV11" s="3">
+        <f t="shared" si="0"/>
+        <v>6.0998837209302321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1</v>
+      </c>
+      <c r="V12" s="1">
+        <v>1</v>
+      </c>
+      <c r="W12" s="1">
+        <v>1</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="1">
+        <f t="shared" si="1"/>
+        <v>34.75</v>
+      </c>
+      <c r="AT12" s="3">
+        <f t="shared" si="2"/>
+        <v>8.0813953488372086</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>5.45</v>
+      </c>
+      <c r="AV12" s="3">
+        <f t="shared" si="0"/>
+        <v>6.7656976744186039</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T13" s="1">
+        <v>1</v>
+      </c>
+      <c r="U13" s="1">
+        <v>1</v>
+      </c>
+      <c r="V13" s="1">
+        <v>1</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="1">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="AT13" s="3">
+        <f t="shared" si="2"/>
+        <v>7.441860465116279</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>4.67</v>
+      </c>
+      <c r="AV13" s="3">
+        <f t="shared" si="0"/>
+        <v>6.0559302325581399</v>
+      </c>
+    </row>
+    <row r="22" spans="66:66" x14ac:dyDescent="0.25">
+      <c r="BN22" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:AV13" xr:uid="{E0D1F637-87CE-45EE-9045-BC64CF87B458}"/>
+  <conditionalFormatting sqref="AV2:AV13">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>5.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD40177-5460-424F-B60E-2ED4F1662364}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>